--- a/Messungen.xlsx
+++ b/Messungen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlvi2\OneDrive\Desktop\Physik\Fortgeschr. Praktikum\V47---Molwaerme-von-Cu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/6. Semester/FP/V47---Molwaerme-von-Cu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861A5D16-A11E-4FCB-BF2E-01410E49DA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{861A5D16-A11E-4FCB-BF2E-01410E49DA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B18C9408-EAE0-4D4A-8890-ED231A6DEA67}"/>
   <bookViews>
-    <workbookView xWindow="19035" yWindow="0" windowWidth="9870" windowHeight="15585" xr2:uid="{4E3E2E45-D1CD-4E85-AAFB-717730477114}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4E3E2E45-D1CD-4E85-AAFB-717730477114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>R</t>
   </si>
   <si>
     <t>delta T</t>
-  </si>
-  <si>
-    <t>C_p</t>
-  </si>
-  <si>
-    <t>T_{start}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_start cu </t>
   </si>
   <si>
     <t>in s</t>
@@ -61,13 +52,37 @@
   <si>
     <t>V_cu</t>
   </si>
+  <si>
+    <t>delta t</t>
+  </si>
+  <si>
+    <t>T in K</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Cv</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>theta/T</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -127,6 +142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,44 +465,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B9262-0525-4A9E-8EB0-85AC13487FD6}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>27.3</v>
       </c>
@@ -497,22 +532,42 @@
         <v>153.4</v>
       </c>
       <c r="E2" s="1">
-        <f>0.00134*(A2-H2)^2+2.296*(A2-H2)</f>
-        <v>5.5181184000000041</v>
-      </c>
-      <c r="G2">
-        <f>0.00134*H2*H2+2.296*H2-243.02+273.15</f>
-        <v>88.13121339999995</v>
+        <f>F3-F2</f>
+        <v>3.0821778000000108</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F28" si="0">0.00134*A2*A2+2.296*A2-243.02+273.15</f>
+        <v>93.809488599999952</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G27" si="1">B3-B2</f>
+        <v>129</v>
       </c>
       <c r="H2">
-        <v>24.9</v>
-      </c>
-      <c r="I2" s="4">
-        <f>B3-B2</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>C3*D3*10^(-3)*G2</f>
+        <v>319.20998399999996</v>
+      </c>
+      <c r="I2">
+        <f>(0.0634*H2)/(0.342*E2)</f>
+        <v>19.199146839751048</v>
+      </c>
+      <c r="J2">
+        <f>((F2-70)*0.15+7)*10^(-6)</f>
+        <v>1.0571423289999993E-5</v>
+      </c>
+      <c r="K2">
+        <f>I2-9*J2*J2*140*10^9*F2*7.11*10^(-6)</f>
+        <v>19.105227757579438</v>
+      </c>
+      <c r="L2">
+        <v>2.4</v>
+      </c>
+      <c r="M2">
+        <f>L2*F2</f>
+        <v>225.14277263999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>28.6</v>
       </c>
@@ -526,15 +581,42 @@
         <v>153.6</v>
       </c>
       <c r="E3" s="1">
-        <f>0.00134*(A3-A3)^2+2.296*(A3-A2)</f>
-        <v>2.9848000000000012</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I25" si="0">B4-B3</f>
+        <f t="shared" ref="E3:E27" si="2">F4-F3</f>
+        <v>1.4240712000000144</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>96.891666399999963</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="3">C4*D4*10^(-3)*G3</f>
+        <v>123.33064800000001</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I27" si="4">(0.0634*H3)/(0.342*E3)</f>
+        <v>16.054709870459398</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J27" si="5">((F3-70)*0.15+7)*10^(-6)</f>
+        <v>1.1033749959999993E-5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K27" si="6">I3-9*J3*J3*140*10^9*F3*7.11*10^(-6)</f>
+        <v>15.949034726748483</v>
+      </c>
+      <c r="L3">
+        <v>3.1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M13" si="7">L3*F3</f>
+        <v>300.36416583999988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>29.2</v>
       </c>
@@ -548,15 +630,42 @@
         <v>151.9</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E34" si="1">0.00134*(A4-A4)^2+2.296*(A4-A3)</f>
-        <v>1.3775999999999951</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>9.7569749999999829</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>98.315737599999977</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>909.72270000000003</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>17.284506778618997</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>1.1247360639999996E-5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>17.17308645150079</v>
+      </c>
+      <c r="L4">
+        <v>2.9</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="7"/>
+        <v>285.11563903999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>33.299999999999997</v>
       </c>
@@ -570,15 +679,42 @@
         <v>153</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.4135999999999935</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>10.760732999999988</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>108.07271259999996</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1067.3356799999999</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>18.387484680921148</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>1.2710906889999993E-5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>18.231058560980081</v>
+      </c>
+      <c r="L5">
+        <v>2.6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>280.98905275999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>37.799999999999997</v>
       </c>
@@ -592,15 +728,42 @@
         <v>153.6</v>
       </c>
       <c r="E6" s="1">
-        <f>0.00134*(A6-A6)^2+2.296*(A6-A5)</f>
-        <v>10.331999999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6.2420488000000205</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>118.83344559999995</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
         <v>265</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>659.8558300000002</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>19.596795036514308</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>1.4325016839999992E-5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>19.378336450679534</v>
+      </c>
+      <c r="L6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>273.31692487999987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>40.4</v>
       </c>
@@ -614,15 +777,42 @@
         <v>153.80000000000001</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9696000000000025</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>5.5369142000000124</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>125.07549439999997</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>621.97212000000002</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>20.824101690229721</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>1.5261324159999995E-5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>20.563127950890653</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>250.15098879999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>42.7</v>
       </c>
@@ -636,15 +826,42 @@
         <v>154</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>5.280800000000009</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>5.7927647999999863</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>130.61240859999998</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>631.06041599999992</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>20.195201732740131</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>1.6091861289999996E-5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>19.892205558592217</v>
+      </c>
+      <c r="L8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>287.34729891999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45.1</v>
       </c>
@@ -659,15 +876,42 @@
         <v>154.19999999999999</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>5.5103999999999962</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>5.8082015999999896</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>136.40517339999997</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>662.76170400000012</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>21.153336379286316</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>1.6960776009999996E-5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>20.801806354056623</v>
+      </c>
+      <c r="L9">
+        <v>1.9</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>259.1698294599999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>47.5</v>
       </c>
@@ -682,15 +926,42 @@
         <v>154.30000000000001</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>5.5103999999999962</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6.0666250000000161</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>142.21337499999996</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>664.00646399999994</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>20.290292536277484</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>1.783200624999999E-5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>19.885175035841577</v>
+      </c>
+      <c r="L10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>312.86942499999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>50</v>
       </c>
@@ -704,15 +975,42 @@
         <v>154.4</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>5.7399999999999993</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>5.5960885999999732</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>148.27999999999997</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
         <v>243</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>611.95904999999993</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>20.272202313444147</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>1.8741999999999998E-5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>19.805591724352649</v>
+      </c>
+      <c r="L11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>326.21599999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>52.3</v>
       </c>
@@ -726,15 +1024,42 @@
         <v>154.5</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2807999999999931</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6.831764800000002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>153.87608859999995</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
         <v>299</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>754.42394300000001</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>20.471313472334181</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>1.9581413289999992E-5</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>19.942747316321288</v>
+      </c>
+      <c r="L12">
+        <v>2.1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>323.13978605999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>55.1</v>
       </c>
@@ -748,15 +1073,42 @@
         <v>154.69999999999999</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>6.4288000000000096</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6.1175450000000069</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>160.70785339999995</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>737.66529199999991</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>22.353489530130492</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>2.0606178009999992E-5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>21.742164552685786</v>
+      </c>
+      <c r="L13">
+        <v>1.7</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>273.20335077999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>57.6</v>
       </c>
@@ -770,15 +1122,35 @@
         <v>154.69999999999999</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>5.7399999999999993</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>4.9060960000000193</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>166.82539839999995</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
         <v>318</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>804.35937600000011</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>30.393256715726601</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>2.152380975999999E-5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>29.700882946404246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>59.6</v>
       </c>
@@ -792,15 +1164,35 @@
         <v>154.80000000000001</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5919999999999996</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>3.4406455999999821</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>171.73149439999997</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>258.00206400000002</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>13.901011135817141</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>2.2259724159999996E-5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>13.138704585447647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>61</v>
       </c>
@@ -814,15 +1206,35 @@
         <v>154.80000000000001</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>3.2143999999999964</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>7.6372653999999613</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>175.17213999999996</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
         <v>334</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>846.41077600000006</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>20.545014534952941</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>2.2775820999999994E-5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>19.730960443689092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>64.099999999999994</v>
       </c>
@@ -836,15 +1248,35 @@
         <v>154.9</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1175999999999862</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>7.6630202000000622</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>182.80940539999992</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>829.71345000000019</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>20.072030660118518</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>2.3921410809999984E-5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>19.13487386019299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>67.2</v>
       </c>
@@ -858,15 +1290,35 @@
         <v>155</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>7.117600000000019</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6.6952277999999694</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>190.47242559999998</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
         <v>343</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>870.31105000000014</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>24.097516777512308</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>2.5070863839999995E-5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>23.02498330536886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>69.900000000000006</v>
       </c>
@@ -880,15 +1332,35 @@
         <v>155</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1992000000000056</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>9.7053762000000177</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>197.16765339999995</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
         <v>513</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1303.2959939999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>24.893951436936522</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>2.6075148009999991E-5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>23.692989126851359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>73.8</v>
       </c>
@@ -902,15 +1374,35 @@
         <v>155.1</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9543999999999802</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>7.9938303999999789</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>206.87302959999997</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
         <v>387</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>983.82211199999983</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>22.815227377037438</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>2.7530954439999994E-5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>21.410517759393041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>77</v>
       </c>
@@ -924,15 +1416,35 @@
         <v>155.19999999999999</v>
       </c>
       <c r="E21" s="1">
-        <f>0.00134*(A21-A21)^2+2.296*(A21-A20)</f>
-        <v>7.3472000000000062</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>7.5191399999999931</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>214.86685999999995</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
         <v>368</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>936.09190400000011</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>23.078813088724694</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>2.873002899999999E-5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>21.489967429486644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>80</v>
       </c>
@@ -946,15 +1458,35 @@
         <v>155.19999999999999</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8879999999999999</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>9.0548064000000181</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>222.38599999999994</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>1142.1338720000001</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>23.383041163008034</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>2.9857899999999987E-5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>21.606946507005819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>83.6</v>
       </c>
@@ -968,15 +1500,35 @@
         <v>155.19999999999999</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>8.2655999999999867</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>9.5955320000000199</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>231.44080639999996</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1473.7674930000001</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>28.472333813571403</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>3.1216120959999992E-5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>26.45193107036124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>87.4</v>
       </c>
@@ -990,15 +1542,35 @@
         <v>155.30000000000001</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>8.724800000000025</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>10.396476599999971</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>241.03633839999998</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
         <v>432</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>1099.5985440000002</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>19.606999037994992</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>3.2655450759999989E-5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>17.304316683219739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>91.5</v>
       </c>
@@ -1012,15 +1584,35 @@
         <v>155.30000000000001</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>9.4135999999999864</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>11.46262500000006</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>251.43281499999995</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>1512.9215640000002</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>24.467831450842112</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>3.4214922249999982E-5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>21.830934133274962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>96</v>
       </c>
@@ -1034,11 +1626,35 @@
         <v>155.4</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>10.331999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>10.234559999999988</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>262.89544000000001</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>507</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1289.7136979999998</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>23.360777227252331</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>3.5934315999999996E-5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>20.319598358127749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>100</v>
       </c>
@@ -1052,11 +1668,35 @@
         <v>155.30000000000001</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>9.1839999999999993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>10.277439999999956</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>273.13</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>1249.0126739999998</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>22.529162475234553</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>3.7469499999999998E-5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>19.093857121509465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>104</v>
       </c>
@@ -1069,48 +1709,31 @@
       <c r="D28" s="3">
         <v>155.30000000000001</v>
       </c>
-      <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>9.1839999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>283.40743999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
-      <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>-238.78399999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
-      <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Messungen.xlsx
+++ b/Messungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/6. Semester/FP/V47---Molwaerme-von-Cu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{861A5D16-A11E-4FCB-BF2E-01410E49DA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B18C9408-EAE0-4D4A-8890-ED231A6DEA67}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{861A5D16-A11E-4FCB-BF2E-01410E49DA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE48397-D407-4ABA-B1FA-D440BA66D6CB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4E3E2E45-D1CD-4E85-AAFB-717730477114}"/>
   </bookViews>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4B9262-0525-4A9E-8EB0-85AC13487FD6}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M13"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
